--- a/data/New User.xlsx
+++ b/data/New User.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiguelTorres\Documents\SELENIUM PROJECTS\Gradle-Tutorial-IntelliJIDEA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A50CBD-E2BC-493B-965A-69EDC89FE6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4AD0EB-C0AA-4C64-A635-CEE9C2C9521F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B1DF2AA4-C70B-484D-9A4D-659B17A6743A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1DF2AA4-C70B-484D-9A4D-659B17A6743A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>chrome</t>
   </si>
@@ -53,18 +53,12 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Full Name</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
     <t>alayah733@xsellsy.com</t>
   </si>
   <si>
@@ -81,6 +75,48 @@
   </si>
   <si>
     <t>fakeemail@gmail.com</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>TestName3</t>
+  </si>
+  <si>
+    <t>mike.itou93@gmail.com</t>
+  </si>
+  <si>
+    <t>ShakugaN321?</t>
+  </si>
+  <si>
+    <t>Test Case Name1</t>
+  </si>
+  <si>
+    <t>Test Case Name2</t>
+  </si>
+  <si>
+    <t>Test Case Name3</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Test Case Name4</t>
+  </si>
+  <si>
+    <t>Test Case Name5</t>
+  </si>
+  <si>
+    <t>TestName4</t>
+  </si>
+  <si>
+    <t>TestName5</t>
   </si>
 </sst>
 </file>
@@ -452,88 +488,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED1848B-F90F-4D0C-9B98-DA8C8FF5F5A7}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{20401BC5-E363-4004-800F-85B50E3F1EFD}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{20401BC5-E363-4004-800F-85B50E3F1EFD}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{28C5EFAD-D274-4DA4-810E-BAF27F4DF70C}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{10EBBDEF-358E-4743-84C9-53072127D5B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/New User.xlsx
+++ b/data/New User.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiguelTorres\Documents\SELENIUM PROJECTS\Gradle-Tutorial-IntelliJIDEA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4AD0EB-C0AA-4C64-A635-CEE9C2C9521F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22CCCC2-9517-49C3-ACB9-F89570B432D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1DF2AA4-C70B-484D-9A4D-659B17A6743A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>chrome</t>
   </si>
@@ -77,9 +77,6 @@
     <t>fakeemail@gmail.com</t>
   </si>
   <si>
-    <t>firefox</t>
-  </si>
-  <si>
     <t>TestName3</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>Test Case Name5</t>
-  </si>
-  <si>
-    <t>TestName4</t>
   </si>
   <si>
     <t>TestName5</t>
@@ -491,7 +485,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +501,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -516,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -525,12 +519,12 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -553,7 +547,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -576,39 +570,36 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -622,7 +613,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -631,13 +622,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>

--- a/data/New User.xlsx
+++ b/data/New User.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiguelTorres\Documents\SELENIUM PROJECTS\Gradle-Tutorial-IntelliJIDEA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22CCCC2-9517-49C3-ACB9-F89570B432D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01765D67-F9CC-4F01-A5EE-790D0C387821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1DF2AA4-C70B-484D-9A4D-659B17A6743A}"/>
   </bookViews>
